--- a/motor/motor.xlsx
+++ b/motor/motor.xlsx
@@ -167,12 +167,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -182,9 +179,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,7 +770,7 @@
       <c r="H2" s="1">
         <v>396</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -814,7 +808,7 @@
       <c r="H3" s="1">
         <v>388</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -890,7 +884,7 @@
       <c r="H5" s="1">
         <v>1540</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -928,7 +922,7 @@
       <c r="H6" s="1">
         <v>963</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -942,7 +936,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1">
@@ -966,7 +960,7 @@
       <c r="H7" s="1">
         <v>336</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -980,40 +974,40 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>4.5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>469</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>482</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2.5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>365</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1045,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="1">
@@ -1068,7 +1062,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -1077,11 +1071,11 @@
       <c r="H11" s="1">
         <v>530</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="1">
